--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N2">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O2">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P2">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q2">
-        <v>287.0307392362787</v>
+        <v>555.113565219909</v>
       </c>
       <c r="R2">
-        <v>287.0307392362787</v>
+        <v>4996.02208697918</v>
       </c>
       <c r="S2">
-        <v>0.003144517266746595</v>
+        <v>0.004747450335289285</v>
       </c>
       <c r="T2">
-        <v>0.003144517266746595</v>
+        <v>0.004747450335289286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N3">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O3">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P3">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q3">
-        <v>77.51822551027161</v>
+        <v>96.33475810674844</v>
       </c>
       <c r="R3">
-        <v>77.51822551027161</v>
+        <v>867.012822960736</v>
       </c>
       <c r="S3">
-        <v>0.000849237957067548</v>
+        <v>0.0008238755244482586</v>
       </c>
       <c r="T3">
-        <v>0.000849237957067548</v>
+        <v>0.0008238755244482586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N4">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O4">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P4">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q4">
-        <v>472.1204618278175</v>
+        <v>639.8307784143725</v>
       </c>
       <c r="R4">
-        <v>472.1204618278175</v>
+        <v>5758.477005729352</v>
       </c>
       <c r="S4">
-        <v>0.00517223677210356</v>
+        <v>0.005471970122561105</v>
       </c>
       <c r="T4">
-        <v>0.00517223677210356</v>
+        <v>0.005471970122561106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N5">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O5">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P5">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q5">
-        <v>53.47101831009259</v>
+        <v>81.15394855306891</v>
       </c>
       <c r="R5">
-        <v>53.47101831009259</v>
+        <v>730.3855369776202</v>
       </c>
       <c r="S5">
-        <v>0.0005857927997328506</v>
+        <v>0.0006940459833938475</v>
       </c>
       <c r="T5">
-        <v>0.0005857927997328506</v>
+        <v>0.0006940459833938475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N6">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O6">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P6">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q6">
-        <v>28471.90226806815</v>
+        <v>45546.27177439956</v>
       </c>
       <c r="R6">
-        <v>28471.90226806815</v>
+        <v>409916.4459695961</v>
       </c>
       <c r="S6">
-        <v>0.3119191642584385</v>
+        <v>0.3895214902934157</v>
       </c>
       <c r="T6">
-        <v>0.3119191642584385</v>
+        <v>0.3895214902934157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N7">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O7">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P7">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q7">
-        <v>7689.390155894352</v>
+        <v>7904.128720602995</v>
       </c>
       <c r="R7">
-        <v>7689.390155894352</v>
+        <v>71137.15848542696</v>
       </c>
       <c r="S7">
-        <v>0.08423982804175202</v>
+        <v>0.06759780501838573</v>
       </c>
       <c r="T7">
-        <v>0.08423982804175202</v>
+        <v>0.06759780501838575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N8">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O8">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P8">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q8">
-        <v>46831.80513586546</v>
+        <v>52497.19759909313</v>
       </c>
       <c r="R8">
-        <v>46831.80513586546</v>
+        <v>472474.7783918382</v>
       </c>
       <c r="S8">
-        <v>0.5130580100043436</v>
+        <v>0.4489672995918063</v>
       </c>
       <c r="T8">
-        <v>0.5130580100043436</v>
+        <v>0.4489672995918064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N9">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O9">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P9">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q9">
-        <v>5304.036813443203</v>
+        <v>6658.565071994663</v>
       </c>
       <c r="R9">
-        <v>5304.036813443203</v>
+        <v>59927.08564795196</v>
       </c>
       <c r="S9">
-        <v>0.0581074883746238</v>
+        <v>0.05694547740166243</v>
       </c>
       <c r="T9">
-        <v>0.0581074883746238</v>
+        <v>0.05694547740166243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N10">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O10">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P10">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q10">
-        <v>232.0774653167494</v>
+        <v>486.8234123747812</v>
       </c>
       <c r="R10">
-        <v>232.0774653167494</v>
+        <v>4381.410711373031</v>
       </c>
       <c r="S10">
-        <v>0.002542485863545671</v>
+        <v>0.004163418293317614</v>
       </c>
       <c r="T10">
-        <v>0.002542485863545671</v>
+        <v>0.004163418293317614</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N11">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O11">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P11">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q11">
-        <v>62.6770266492843</v>
+        <v>84.48364192513957</v>
       </c>
       <c r="R11">
-        <v>62.6770266492843</v>
+        <v>760.352777326256</v>
       </c>
       <c r="S11">
-        <v>0.0006866476846745349</v>
+        <v>0.0007225222356529418</v>
       </c>
       <c r="T11">
-        <v>0.0006866476846745349</v>
+        <v>0.0007225222356529419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N12">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O12">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P12">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q12">
-        <v>381.7309616269988</v>
+        <v>561.1187014799436</v>
       </c>
       <c r="R12">
-        <v>381.7309616269988</v>
+        <v>5050.068313319493</v>
       </c>
       <c r="S12">
-        <v>0.004181989717483759</v>
+        <v>0.004798807549267411</v>
       </c>
       <c r="T12">
-        <v>0.004181989717483759</v>
+        <v>0.004798807549267413</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N13">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O13">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P13">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q13">
-        <v>43.23376106102896</v>
+        <v>71.17037780664114</v>
       </c>
       <c r="R13">
-        <v>43.23376106102896</v>
+        <v>640.5334002597701</v>
       </c>
       <c r="S13">
-        <v>0.000473640239803344</v>
+        <v>0.0006086643439292514</v>
       </c>
       <c r="T13">
-        <v>0.000473640239803344</v>
+        <v>0.0006086643439292515</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.4887422743498</v>
+        <v>27.81717833333333</v>
       </c>
       <c r="N14">
-        <v>17.4887422743498</v>
+        <v>83.45153500000001</v>
       </c>
       <c r="O14">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248731</v>
       </c>
       <c r="P14">
-        <v>0.3224555640470141</v>
+        <v>0.4044740580248732</v>
       </c>
       <c r="Q14">
-        <v>442.6516980512934</v>
+        <v>706.4484917386611</v>
       </c>
       <c r="R14">
-        <v>442.6516980512934</v>
+        <v>6358.03642564795</v>
       </c>
       <c r="S14">
-        <v>0.004849396658283289</v>
+        <v>0.00604169910285059</v>
       </c>
       <c r="T14">
-        <v>0.004849396658283289</v>
+        <v>0.006041699102850591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.72317449734219</v>
+        <v>4.827410666666666</v>
       </c>
       <c r="N15">
-        <v>4.72317449734219</v>
+        <v>14.482232</v>
       </c>
       <c r="O15">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="P15">
-        <v>0.08708538743044465</v>
+        <v>0.0701926830500802</v>
       </c>
       <c r="Q15">
-        <v>119.5466877287957</v>
+        <v>122.5975166713155</v>
       </c>
       <c r="R15">
-        <v>119.5466877287957</v>
+        <v>1103.37765004184</v>
       </c>
       <c r="S15">
-        <v>0.001309673746950543</v>
+        <v>0.001048480271593256</v>
       </c>
       <c r="T15">
-        <v>0.001309673746950543</v>
+        <v>0.001048480271593256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.7662328478235</v>
+        <v>32.06242466666667</v>
       </c>
       <c r="N16">
-        <v>28.7662328478235</v>
+        <v>96.187274</v>
       </c>
       <c r="O16">
-        <v>0.5303887319591443</v>
+        <v>0.4662018145637509</v>
       </c>
       <c r="P16">
-        <v>0.5303887319591443</v>
+        <v>0.466201814563751</v>
       </c>
       <c r="Q16">
-        <v>728.0924846896327</v>
+        <v>814.2612912003755</v>
       </c>
       <c r="R16">
-        <v>728.0924846896327</v>
+        <v>7328.35162080338</v>
       </c>
       <c r="S16">
-        <v>0.00797649546521324</v>
+        <v>0.006963737300116096</v>
       </c>
       <c r="T16">
-        <v>0.00797649546521324</v>
+        <v>0.006963737300116097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.25798156971075</v>
+        <v>4.066688333333334</v>
       </c>
       <c r="N17">
-        <v>3.25798156971075</v>
+        <v>12.200065</v>
       </c>
       <c r="O17">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="P17">
-        <v>0.06007031656339701</v>
+        <v>0.05913144436129575</v>
       </c>
       <c r="Q17">
-        <v>82.46168028717767</v>
+        <v>103.2781184715611</v>
       </c>
       <c r="R17">
-        <v>82.46168028717767</v>
+        <v>929.50306624405</v>
       </c>
       <c r="S17">
-        <v>0.0009033951492370107</v>
+        <v>0.0008832566323102254</v>
       </c>
       <c r="T17">
-        <v>0.0009033951492370107</v>
+        <v>0.0008832566323102254</v>
       </c>
     </row>
   </sheetData>
